--- a/data/strategies/光大场内策略结果.xlsx
+++ b/data/strategies/光大场内策略结果.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="204">
   <si>
     <t>广发中证全指可选消费ETF</t>
   </si>
@@ -26,18 +26,18 @@
     <t>易方达沪深300非银ETF</t>
   </si>
   <si>
+    <t>南方中证申万有色金属ETF</t>
+  </si>
+  <si>
+    <t>国泰中证军工ETF</t>
+  </si>
+  <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
     <t>华泰柏瑞中证光伏产业ETF</t>
   </si>
   <si>
-    <t>国泰中证军工ETF</t>
-  </si>
-  <si>
-    <t>南方中证申万有色金属ETF</t>
-  </si>
-  <si>
     <t>“后疫情时代”+消费、新能源 大宗商品</t>
   </si>
   <si>
@@ -68,73 +68,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>2.93%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>15.31%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>5.05%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>20.28%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>20.29%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>27.01%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>11.40%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>18.89%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>10.77%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>24.07%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>20.92%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.34%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -149,124 +146,124 @@
     <t>512070.OF</t>
   </si>
   <si>
+    <t>512400.OF</t>
+  </si>
+  <si>
+    <t>512660.OF</t>
+  </si>
+  <si>
     <t>515700.OF</t>
   </si>
   <si>
     <t>515790.OF</t>
   </si>
   <si>
-    <t>512660.OF</t>
-  </si>
-  <si>
-    <t>512400.OF</t>
-  </si>
-  <si>
-    <t>-0.89%</t>
-  </si>
-  <si>
-    <t>-3.21%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>14.72%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>5.87%</t>
-  </si>
-  <si>
-    <t>-1.28%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>28.47%</t>
-  </si>
-  <si>
-    <t>12.76%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>-11.74%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>-10.02%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
-    <t>15.12%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>34.69%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>15.79%</t>
-  </si>
-  <si>
-    <t>20.76%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>28.36%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>19.87%</t>
-  </si>
-  <si>
-    <t>22.73%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>35.81%</t>
-  </si>
-  <si>
-    <t>34.49%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
+    <t>-1.30%</t>
+  </si>
+  <si>
+    <t>-7.82%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>23.86%</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-6.88%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>30.10%</t>
+  </si>
+  <si>
+    <t>0.10%</t>
+  </si>
+  <si>
+    <t>-17.77%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>-10.93%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>21.57%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>18.76%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>34.61%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>37.33%</t>
+  </si>
+  <si>
+    <t>15.67%</t>
+  </si>
+  <si>
+    <t>22.08%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
+  </si>
+  <si>
+    <t>28.59%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>30.05%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>22.68%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
+  </si>
+  <si>
+    <t>36.12%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -281,304 +278,301 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>601318.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
+    <t>002594.SZ</t>
   </si>
   <si>
     <t>300059.SZ</t>
   </si>
   <si>
-    <t>600111.SH</t>
-  </si>
-  <si>
     <t>000333.SZ</t>
   </si>
   <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
     <t>601888.SH</t>
   </si>
   <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>603993.SH</t>
-  </si>
-  <si>
     <t>300274.SZ</t>
   </si>
   <si>
-    <t>600547.SH</t>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>601600.SH</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
-    <t>5.16%</t>
-  </si>
-  <si>
-    <t>4.29%</t>
-  </si>
-  <si>
-    <t>3.24%</t>
-  </si>
-  <si>
-    <t>3.10%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>1.74%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.39%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.28%</t>
-  </si>
-  <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.23%</t>
-  </si>
-  <si>
-    <t>1.14%</t>
-  </si>
-  <si>
-    <t>1.04%</t>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>600837.SH</t>
+  </si>
+  <si>
+    <t>300014.SZ</t>
+  </si>
+  <si>
+    <t>300124.SZ</t>
+  </si>
+  <si>
+    <t>601601.SH</t>
+  </si>
+  <si>
+    <t>002179.SZ</t>
+  </si>
+  <si>
+    <t>492.86%</t>
+  </si>
+  <si>
+    <t>230.09%</t>
+  </si>
+  <si>
+    <t>191.91%</t>
+  </si>
+  <si>
+    <t>158.34%</t>
+  </si>
+  <si>
+    <t>150.38%</t>
+  </si>
+  <si>
+    <t>134.20%</t>
+  </si>
+  <si>
+    <t>125.95%</t>
+  </si>
+  <si>
+    <t>125.27%</t>
+  </si>
+  <si>
+    <t>120.21%</t>
+  </si>
+  <si>
+    <t>114.85%</t>
+  </si>
+  <si>
+    <t>112.08%</t>
+  </si>
+  <si>
+    <t>101.85%</t>
+  </si>
+  <si>
+    <t>96.12%</t>
+  </si>
+  <si>
+    <t>82.21%</t>
+  </si>
+  <si>
+    <t>78.88%</t>
+  </si>
+  <si>
+    <t>78.59%</t>
+  </si>
+  <si>
+    <t>74.46%</t>
+  </si>
+  <si>
+    <t>72.68%</t>
+  </si>
+  <si>
+    <t>70.18%</t>
+  </si>
+  <si>
+    <t>63.01%</t>
   </si>
   <si>
     <t>中国平安</t>
   </si>
   <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>格林美</t>
+    <t>比亚迪</t>
   </si>
   <si>
     <t>东方财富</t>
   </si>
   <si>
-    <t>北方稀土</t>
-  </si>
-  <si>
     <t>美的集团</t>
   </si>
   <si>
+    <t>中信证券</t>
+  </si>
+  <si>
     <t>中国中免</t>
   </si>
   <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>洛阳钼业</t>
-  </si>
-  <si>
     <t>阳光电源</t>
   </si>
   <si>
-    <t>山东黄金</t>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>通威股份</t>
   </si>
   <si>
     <t>先导智能</t>
   </si>
   <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>中国铝业</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>海通证券</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>中国太保</t>
+  </si>
+  <si>
+    <t>中航光电</t>
   </si>
   <si>
     <t>产险:机动车辆保险</t>
   </si>
   <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>三元材料</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>证券经纪业务</t>
   </si>
   <si>
-    <t>其他业务</t>
-  </si>
-  <si>
     <t>暖通空调</t>
   </si>
   <si>
     <t>商品贸易-免税商品</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>精炼金属贸易</t>
-  </si>
-  <si>
     <t>电站系统集成(不含自制产品)</t>
   </si>
   <si>
-    <t>外购合质金</t>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
   </si>
   <si>
     <t>锂电池设备</t>
   </si>
   <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>贸易板块</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>59.14%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>-10.07%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>-16.68%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>48.90%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>个人寿险</t>
+  </si>
+  <si>
+    <t>电连接器</t>
+  </si>
+  <si>
+    <t>-29.54%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>-20.79%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -587,55 +581,55 @@
     <t>标签占比</t>
   </si>
   <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>家电家具</t>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>国防军工</t>
   </si>
   <si>
     <t>商业贸易</t>
   </si>
   <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>29.33%</t>
-  </si>
-  <si>
-    <t>22.01%</t>
-  </si>
-  <si>
-    <t>13.17%</t>
-  </si>
-  <si>
-    <t>9.62%</t>
-  </si>
-  <si>
-    <t>8.22%</t>
-  </si>
-  <si>
-    <t>7.12%</t>
-  </si>
-  <si>
-    <t>3.83%</t>
-  </si>
-  <si>
-    <t>3.55%</t>
-  </si>
-  <si>
-    <t>3.14%</t>
+    <t xml:space="preserve">锂电池 </t>
+  </si>
+  <si>
+    <t>8.40%</t>
+  </si>
+  <si>
+    <t>7.87%</t>
+  </si>
+  <si>
+    <t>6.28%</t>
+  </si>
+  <si>
+    <t>4.57%</t>
+  </si>
+  <si>
+    <t>4.08%</t>
+  </si>
+  <si>
+    <t>3.43%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
+  </si>
+  <si>
+    <t>2.00%</t>
+  </si>
+  <si>
+    <t>1.11%</t>
   </si>
 </sst>
 </file>
@@ -999,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,19 +1074,19 @@
         <v>0.9975679270378113</v>
       </c>
       <c r="D3">
+        <v>1.056768131545464</v>
+      </c>
+      <c r="E3">
+        <v>1.066006857855362</v>
+      </c>
+      <c r="F3">
         <v>1.07818653347421</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.053756818581735</v>
       </c>
-      <c r="F3">
-        <v>1.066006857855362</v>
-      </c>
-      <c r="G3">
-        <v>1.056768131545464</v>
-      </c>
       <c r="H3">
-        <v>1.042789312060056</v>
+        <v>1.042126823208035</v>
       </c>
       <c r="I3">
         <v>1.018168368380631</v>
@@ -1112,19 +1106,19 @@
         <v>0.9930837925137755</v>
       </c>
       <c r="D4">
+        <v>1.068219633943428</v>
+      </c>
+      <c r="E4">
+        <v>1.075358478802993</v>
+      </c>
+      <c r="F4">
         <v>1.091441744308904</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.055076544078832</v>
       </c>
-      <c r="F4">
-        <v>1.075358478802993</v>
-      </c>
-      <c r="G4">
-        <v>1.068219633943428</v>
-      </c>
       <c r="H4">
-        <v>1.049700028113985</v>
+        <v>1.046808548343774</v>
       </c>
       <c r="I4">
         <v>1.027111201157197</v>
@@ -1144,19 +1138,19 @@
         <v>1.001634049021471</v>
       </c>
       <c r="D5">
+        <v>1.073407066653616</v>
+      </c>
+      <c r="E5">
+        <v>1.09180174563591</v>
+      </c>
+      <c r="F5">
         <v>1.079195082124676</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1.053580855182122</v>
       </c>
-      <c r="F5">
-        <v>1.09180174563591</v>
-      </c>
-      <c r="G5">
-        <v>1.073407066653616</v>
-      </c>
       <c r="H5">
-        <v>1.051636064249128</v>
+        <v>1.0472742977254</v>
       </c>
       <c r="I5">
         <v>1.025290909062353</v>
@@ -1176,19 +1170,19 @@
         <v>1.012540376211286</v>
       </c>
       <c r="D6">
+        <v>1.115102280512871</v>
+      </c>
+      <c r="E6">
+        <v>1.118609725685786</v>
+      </c>
+      <c r="F6">
         <v>1.111756795696859</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1.095284180890375</v>
       </c>
-      <c r="F6">
-        <v>1.118609725685786</v>
-      </c>
-      <c r="G6">
-        <v>1.115102280512871</v>
-      </c>
       <c r="H6">
-        <v>1.080149885021749</v>
+        <v>1.0757899031048</v>
       </c>
       <c r="I6">
         <v>1.026858339183711</v>
@@ -1208,19 +1202,19 @@
         <v>1.00714421432643</v>
       </c>
       <c r="D7">
+        <v>1.111187236958011</v>
+      </c>
+      <c r="E7">
+        <v>1.088606608478803</v>
+      </c>
+      <c r="F7">
         <v>1.098261454231102</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.071969030441668</v>
       </c>
-      <c r="F7">
-        <v>1.088606608478803</v>
-      </c>
-      <c r="G7">
-        <v>1.111187236958011</v>
-      </c>
       <c r="H7">
-        <v>1.07127329333078</v>
+        <v>1.062645287897185</v>
       </c>
       <c r="I7">
         <v>1.029917812005761</v>
@@ -1240,19 +1234,19 @@
         <v>0.9839255177655329</v>
       </c>
       <c r="D8">
+        <v>1.063717333855339</v>
+      </c>
+      <c r="E8">
+        <v>1.052602867830424</v>
+      </c>
+      <c r="F8">
         <v>1.055998463163961</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1.02841808903748</v>
       </c>
-      <c r="F8">
-        <v>1.052602867830424</v>
-      </c>
-      <c r="G8">
-        <v>1.063717333855339</v>
-      </c>
       <c r="H8">
-        <v>1.038337852284044</v>
+        <v>1.030572018424115</v>
       </c>
       <c r="I8">
         <v>1.013866573688848</v>
@@ -1272,19 +1266,19 @@
         <v>1.044043321299639</v>
       </c>
       <c r="D9">
+        <v>1.08808847998434</v>
+      </c>
+      <c r="E9">
+        <v>1.094996882793018</v>
+      </c>
+      <c r="F9">
         <v>1.083181250600327</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>1.064666549357733</v>
       </c>
-      <c r="F9">
-        <v>1.094996882793018</v>
-      </c>
-      <c r="G9">
-        <v>1.08808847998434</v>
-      </c>
       <c r="H9">
-        <v>1.07166927746627</v>
+        <v>1.066516452728417</v>
       </c>
       <c r="I9">
         <v>1.027660901099557</v>
@@ -1304,19 +1298,19 @@
         <v>1.028956868706061</v>
       </c>
       <c r="D10">
+        <v>1.05392972496819</v>
+      </c>
+      <c r="E10">
+        <v>1.079021197007481</v>
+      </c>
+      <c r="F10">
         <v>1.045961002785516</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>1.056220306176315</v>
       </c>
-      <c r="F10">
-        <v>1.079021197007481</v>
-      </c>
-      <c r="G10">
-        <v>1.05392972496819</v>
-      </c>
       <c r="H10">
-        <v>1.050463139583933</v>
+        <v>1.05096706744972</v>
       </c>
       <c r="I10">
         <v>1.020386015005238</v>
@@ -1336,19 +1330,19 @@
         <v>1.004712141364241</v>
       </c>
       <c r="D11">
+        <v>1.032984241949692</v>
+      </c>
+      <c r="E11">
+        <v>1.017534289276808</v>
+      </c>
+      <c r="F11">
         <v>1.018345980213236</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.028506070737287</v>
       </c>
-      <c r="F11">
-        <v>1.017534289276808</v>
-      </c>
-      <c r="G11">
-        <v>1.032984241949692</v>
-      </c>
       <c r="H11">
-        <v>1.022853136820767</v>
+        <v>1.021867939154038</v>
       </c>
       <c r="I11">
         <v>1.011430617658561</v>
@@ -1368,19 +1362,19 @@
         <v>1.01212236367091</v>
       </c>
       <c r="D12">
+        <v>1.043750611725555</v>
+      </c>
+      <c r="E12">
+        <v>1.009741271820449</v>
+      </c>
+      <c r="F12">
         <v>1.040678128902123</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>1.02569065634348</v>
       </c>
-      <c r="F12">
-        <v>1.009741271820449</v>
-      </c>
-      <c r="G12">
-        <v>1.043750611725555</v>
-      </c>
       <c r="H12">
-        <v>1.029688768987559</v>
+        <v>1.025715578803502</v>
       </c>
       <c r="I12">
         <v>1.007914108598721</v>
@@ -1400,19 +1394,19 @@
         <v>1.019950598517956</v>
       </c>
       <c r="D13">
+        <v>1.059508662033865</v>
+      </c>
+      <c r="E13">
+        <v>1.031873441396509</v>
+      </c>
+      <c r="F13">
         <v>1.050859667659207</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>1.045046630300897</v>
       </c>
-      <c r="F13">
-        <v>1.031873441396509</v>
-      </c>
-      <c r="G13">
-        <v>1.059508662033865</v>
-      </c>
       <c r="H13">
-        <v>1.04337868527306</v>
+        <v>1.040197038291808</v>
       </c>
       <c r="I13">
         <v>1.023142367573358</v>
@@ -1432,19 +1426,19 @@
         <v>1.018696560896827</v>
       </c>
       <c r="D14">
+        <v>1.022413624351571</v>
+      </c>
+      <c r="E14">
+        <v>1.009273690773067</v>
+      </c>
+      <c r="F14">
         <v>1.02165978292191</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1.016892486362836</v>
       </c>
-      <c r="F14">
-        <v>1.009273690773067</v>
-      </c>
-      <c r="G14">
-        <v>1.022413624351571</v>
-      </c>
       <c r="H14">
-        <v>1.01966471106306</v>
+        <v>1.018450060705539</v>
       </c>
       <c r="I14">
         <v>1.017160061629216</v>
@@ -1464,19 +1458,19 @@
         <v>1.010032300969029</v>
       </c>
       <c r="D15">
+        <v>1.053146716257218</v>
+      </c>
+      <c r="E15">
+        <v>1.02930174563591</v>
+      </c>
+      <c r="F15">
         <v>1.069685909134569</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>1.051029385887735</v>
       </c>
-      <c r="F15">
-        <v>1.02930174563591</v>
-      </c>
-      <c r="G15">
-        <v>1.053146716257218</v>
-      </c>
       <c r="H15">
-        <v>1.041032965347895</v>
+        <v>1.040567152666608</v>
       </c>
       <c r="I15">
         <v>1.026434284942462</v>
@@ -1496,19 +1490,19 @@
         <v>1.016264487934638</v>
       </c>
       <c r="D16">
+        <v>1.090535382206127</v>
+      </c>
+      <c r="E16">
+        <v>1.039043017456359</v>
+      </c>
+      <c r="F16">
         <v>1.099029872250505</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1.095284180890375</v>
       </c>
-      <c r="F16">
-        <v>1.039043017456359</v>
-      </c>
-      <c r="G16">
-        <v>1.090535382206127</v>
-      </c>
       <c r="H16">
-        <v>1.065934694118754</v>
+        <v>1.066979429829289</v>
       </c>
       <c r="I16">
         <v>1.04011081950838</v>
@@ -1528,19 +1522,19 @@
         <v>0.9974539236177086</v>
       </c>
       <c r="D17">
+        <v>1.10061661935989</v>
+      </c>
+      <c r="E17">
+        <v>1.041536783042394</v>
+      </c>
+      <c r="F17">
         <v>1.13019882816252</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1.131180714411402</v>
       </c>
-      <c r="F17">
-        <v>1.041536783042394</v>
-      </c>
-      <c r="G17">
-        <v>1.10061661935989</v>
-      </c>
       <c r="H17">
-        <v>1.074380386273488</v>
+        <v>1.081104487184821</v>
       </c>
       <c r="I17">
         <v>1.042515364113389</v>
@@ -1560,19 +1554,19 @@
         <v>1.000646019380582</v>
       </c>
       <c r="D18">
+        <v>1.116178917490457</v>
+      </c>
+      <c r="E18">
+        <v>1.042939526184539</v>
+      </c>
+      <c r="F18">
         <v>1.1354336759197</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>1.131444659510822</v>
       </c>
-      <c r="F18">
-        <v>1.042939526184539</v>
-      </c>
-      <c r="G18">
-        <v>1.116178917490457</v>
-      </c>
       <c r="H18">
-        <v>1.08183256798993</v>
+        <v>1.08519103123441</v>
       </c>
       <c r="I18">
         <v>1.043693292561303</v>
@@ -1592,19 +1586,19 @@
         <v>0.9682690480714422</v>
       </c>
       <c r="D19">
+        <v>1.09601644318293</v>
+      </c>
+      <c r="E19">
+        <v>0.9736596009975064</v>
+      </c>
+      <c r="F19">
         <v>1.107674574968783</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>1.11516804504663</v>
       </c>
-      <c r="F19">
-        <v>0.9736596009975064</v>
-      </c>
-      <c r="G19">
-        <v>1.09601644318293</v>
-      </c>
       <c r="H19">
-        <v>1.053662616408877</v>
+        <v>1.057875968818891</v>
       </c>
       <c r="I19">
         <v>1.026047924411546</v>
@@ -1624,19 +1618,19 @@
         <v>0.9697130913927419</v>
       </c>
       <c r="D20">
+        <v>1.089262993050798</v>
+      </c>
+      <c r="E20">
+        <v>0.971243765586035</v>
+      </c>
+      <c r="F20">
         <v>1.120785707424839</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1.159246876649657</v>
       </c>
-      <c r="F20">
-        <v>0.971243765586035</v>
-      </c>
-      <c r="G20">
-        <v>1.089262993050798</v>
-      </c>
       <c r="H20">
-        <v>1.058497696883012</v>
+        <v>1.073894151274761</v>
       </c>
       <c r="I20">
         <v>1.02984870687015</v>
@@ -1656,19 +1650,19 @@
         <v>0.955386661599848</v>
       </c>
       <c r="D21">
+        <v>1.049133796613487</v>
+      </c>
+      <c r="E21">
+        <v>0.9569046134663343</v>
+      </c>
+      <c r="F21">
         <v>1.073191816348093</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>1.100651064578567</v>
       </c>
-      <c r="F21">
-        <v>0.9569046134663343</v>
-      </c>
-      <c r="G21">
-        <v>1.049133796613487</v>
-      </c>
       <c r="H21">
-        <v>1.024939373344376</v>
+        <v>1.036273172296694</v>
       </c>
       <c r="I21">
         <v>1.007424090364388</v>
@@ -1688,19 +1682,19 @@
         <v>0.9400722021660651</v>
       </c>
       <c r="D22">
+        <v>1.036312028971322</v>
+      </c>
+      <c r="E22">
+        <v>0.9264339152119702</v>
+      </c>
+      <c r="F22">
         <v>1.052300451445586</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>1.077951786028506</v>
       </c>
-      <c r="F22">
-        <v>0.9264339152119702</v>
-      </c>
-      <c r="G22">
-        <v>1.036312028971322</v>
-      </c>
       <c r="H22">
-        <v>1.009156379114001</v>
+        <v>1.018317125666582</v>
       </c>
       <c r="I22">
         <v>0.9967065120596316</v>
@@ -1720,19 +1714,19 @@
         <v>0.9410982329469885</v>
       </c>
       <c r="D23">
+        <v>1.048155035724772</v>
+      </c>
+      <c r="E23">
+        <v>0.9218360349127184</v>
+      </c>
+      <c r="F23">
         <v>1.048554413600999</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>1.048917825092381</v>
       </c>
-      <c r="F23">
-        <v>0.9218360349127184</v>
-      </c>
-      <c r="G23">
-        <v>1.048155035724772</v>
-      </c>
       <c r="H23">
-        <v>1.011063221198396</v>
+        <v>1.01123103485927</v>
       </c>
       <c r="I23">
         <v>1.004110184997589</v>
@@ -1752,19 +1746,19 @@
         <v>0.9400722021660651</v>
       </c>
       <c r="D24">
+        <v>1.078790251541548</v>
+      </c>
+      <c r="E24">
+        <v>0.9368765586034913</v>
+      </c>
+      <c r="F24">
         <v>1.10436077226011</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>1.067569945451346</v>
       </c>
-      <c r="F24">
-        <v>0.9368765586034913</v>
-      </c>
-      <c r="G24">
-        <v>1.078790251541548</v>
-      </c>
       <c r="H24">
-        <v>1.036156073974245</v>
+        <v>1.0336876066344</v>
       </c>
       <c r="I24">
         <v>1.013770768841751</v>
@@ -1784,19 +1778,19 @@
         <v>0.9262397871936158</v>
       </c>
       <c r="D25">
+        <v>1.084564940784966</v>
+      </c>
+      <c r="E25">
+        <v>0.9064058603491273</v>
+      </c>
+      <c r="F25">
         <v>1.104120641629046</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>1.064666549357733</v>
       </c>
-      <c r="F25">
-        <v>0.9064058603491273</v>
-      </c>
-      <c r="G25">
-        <v>1.084564940784966</v>
-      </c>
       <c r="H25">
-        <v>1.030972264892535</v>
+        <v>1.026594618778544</v>
       </c>
       <c r="I25">
         <v>1.00506038061224</v>
@@ -1816,19 +1810,19 @@
         <v>0.9252897586927608</v>
       </c>
       <c r="D26">
+        <v>1.040227072526182</v>
+      </c>
+      <c r="E26">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="F26">
         <v>1.0789069253674</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>1.060355446067218</v>
       </c>
-      <c r="F26">
-        <v>0.8935473815461348</v>
-      </c>
-      <c r="G26">
-        <v>1.040227072526182</v>
-      </c>
       <c r="H26">
-        <v>1.009248728493243</v>
+        <v>1.01367697067227</v>
       </c>
       <c r="I26">
         <v>0.9939815709167896</v>
@@ -1848,19 +1842,19 @@
         <v>0.9236177085312559</v>
       </c>
       <c r="D27">
+        <v>0.9885484976020358</v>
+      </c>
+      <c r="E27">
+        <v>0.8753117206982545</v>
+      </c>
+      <c r="F27">
         <v>1.040774181154548</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>1.05806792187225</v>
       </c>
-      <c r="F27">
-        <v>0.8753117206982545</v>
-      </c>
-      <c r="G27">
-        <v>0.9885484976020358</v>
-      </c>
       <c r="H27">
-        <v>0.9841707130465189</v>
+        <v>0.9994649863859661</v>
       </c>
       <c r="I27">
         <v>0.9800160512383169</v>
@@ -1880,19 +1874,19 @@
         <v>0.9192855785673569</v>
       </c>
       <c r="D28">
+        <v>1.028873446217089</v>
+      </c>
+      <c r="E28">
+        <v>0.8789744389027432</v>
+      </c>
+      <c r="F28">
         <v>1.066420132552108</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>1.059827555868379</v>
       </c>
-      <c r="F28">
-        <v>0.8789744389027432</v>
-      </c>
-      <c r="G28">
-        <v>1.028873446217089</v>
-      </c>
       <c r="H28">
-        <v>1.001830429545925</v>
+        <v>1.008640333669209</v>
       </c>
       <c r="I28">
         <v>0.9930973392952219</v>
@@ -1912,19 +1906,19 @@
         <v>0.9342580277408322</v>
       </c>
       <c r="D29">
+        <v>1.080062640696878</v>
+      </c>
+      <c r="E29">
+        <v>0.9283821695760599</v>
+      </c>
+      <c r="F29">
         <v>1.100374603784459</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>1.096427942987859</v>
       </c>
-      <c r="F29">
-        <v>0.9283821695760599</v>
-      </c>
-      <c r="G29">
-        <v>1.080062640696878</v>
-      </c>
       <c r="H29">
-        <v>1.037994538917145</v>
+        <v>1.04159490542116</v>
       </c>
       <c r="I29">
         <v>1.014256075362292</v>
@@ -1944,19 +1938,19 @@
         <v>0.9400342010260309</v>
       </c>
       <c r="D30">
+        <v>1.108936086913967</v>
+      </c>
+      <c r="E30">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="F30">
         <v>1.116319277687062</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>1.123174379729016</v>
       </c>
-      <c r="F30">
-        <v>0.9240960099750624</v>
-      </c>
-      <c r="G30">
-        <v>1.108936086913967</v>
-      </c>
       <c r="H30">
-        <v>1.056592325170489</v>
+        <v>1.0597247495898</v>
       </c>
       <c r="I30">
         <v>1.024824449396979</v>
@@ -1976,19 +1970,19 @@
         <v>0.9569067072012161</v>
       </c>
       <c r="D31">
+        <v>1.181070764412254</v>
+      </c>
+      <c r="E31">
+        <v>0.9183291770573566</v>
+      </c>
+      <c r="F31">
         <v>1.101239074056287</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>1.114464191448179</v>
       </c>
-      <c r="F31">
-        <v>0.9183291770573566</v>
-      </c>
-      <c r="G31">
-        <v>1.181070764412254</v>
-      </c>
       <c r="H31">
-        <v>1.078990474254602</v>
+        <v>1.064337028202505</v>
       </c>
       <c r="I31">
         <v>1.038860644782327</v>
@@ -2008,19 +2002,19 @@
         <v>0.975793273798214</v>
       </c>
       <c r="D32">
+        <v>1.197513947342664</v>
+      </c>
+      <c r="E32">
+        <v>0.921524314214464</v>
+      </c>
+      <c r="F32">
         <v>1.07674574968783</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>1.093612528594053</v>
       </c>
-      <c r="F32">
-        <v>0.921524314214464</v>
-      </c>
-      <c r="G32">
-        <v>1.197513947342664</v>
-      </c>
       <c r="H32">
-        <v>1.083289427463514</v>
+        <v>1.06043111533882</v>
       </c>
       <c r="I32">
         <v>1.052829305603327</v>
@@ -2040,19 +2034,19 @@
         <v>0.9541326239787195</v>
       </c>
       <c r="D33">
+        <v>1.254477831065871</v>
+      </c>
+      <c r="E33">
+        <v>0.8913653366583542</v>
+      </c>
+      <c r="F33">
         <v>1.056910959562002</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>1.058683793770896</v>
       </c>
-      <c r="F33">
-        <v>0.8913653366583542</v>
-      </c>
-      <c r="G33">
-        <v>1.254477831065871</v>
-      </c>
       <c r="H33">
-        <v>1.082190384997662</v>
+        <v>1.039115696792767</v>
       </c>
       <c r="I33">
         <v>1.045538713796369</v>
@@ -2072,19 +2066,19 @@
         <v>0.9592627778833366</v>
       </c>
       <c r="D34">
+        <v>1.237055887246746</v>
+      </c>
+      <c r="E34">
+        <v>0.9158354114713217</v>
+      </c>
+      <c r="F34">
         <v>1.033618288348862</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>1.04944571529122</v>
       </c>
-      <c r="F34">
-        <v>0.9158354114713217</v>
-      </c>
-      <c r="G34">
-        <v>1.237055887246746</v>
-      </c>
       <c r="H34">
-        <v>1.074345832986298</v>
+        <v>1.033071595156082</v>
       </c>
       <c r="I34">
         <v>1.041481928221752</v>
@@ -2104,19 +2098,19 @@
         <v>0.9512445373361201</v>
       </c>
       <c r="D35">
+        <v>1.182343153567583</v>
+      </c>
+      <c r="E35">
+        <v>0.9159912718204489</v>
+      </c>
+      <c r="F35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>1.015396797466127</v>
       </c>
-      <c r="F35">
-        <v>0.9159912718204489</v>
-      </c>
-      <c r="G35">
-        <v>1.182343153567583</v>
-      </c>
       <c r="H35">
-        <v>1.043681918257245</v>
+        <v>1.006953719914925</v>
       </c>
       <c r="I35">
         <v>1.026555218929781</v>
@@ -2136,19 +2130,19 @@
         <v>0.9687250617518526</v>
       </c>
       <c r="D36">
+        <v>1.168934129392189</v>
+      </c>
+      <c r="E36">
+        <v>0.9336814214463841</v>
+      </c>
+      <c r="F36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>1.010909730775999</v>
       </c>
-      <c r="F36">
-        <v>0.9336814214463841</v>
-      </c>
-      <c r="G36">
-        <v>1.168934129392189</v>
-      </c>
       <c r="H36">
-        <v>1.041571815009418</v>
+        <v>1.006806447313856</v>
       </c>
       <c r="I36">
         <v>1.020737822968348</v>
@@ -2168,19 +2162,19 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="D37">
+        <v>1.116766174023686</v>
+      </c>
+      <c r="E37">
+        <v>0.9023534912718205</v>
+      </c>
+      <c r="F37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>1.004487066690128</v>
       </c>
-      <c r="F37">
-        <v>0.9023534912718205</v>
-      </c>
-      <c r="G37">
-        <v>1.116766174023686</v>
-      </c>
       <c r="H37">
-        <v>1.010600586700271</v>
+        <v>0.9858991830868885</v>
       </c>
       <c r="I37">
         <v>0.9995665223311676</v>
@@ -2200,19 +2194,19 @@
         <v>0.9411742352270569</v>
       </c>
       <c r="D38">
+        <v>1.158069883527454</v>
+      </c>
+      <c r="E38">
+        <v>0.9193422693266834</v>
+      </c>
+      <c r="F38">
         <v>0.980981654019787</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>1.029737814534577</v>
       </c>
-      <c r="F38">
-        <v>0.9193422693266834</v>
-      </c>
-      <c r="G38">
-        <v>1.158069883527454</v>
-      </c>
       <c r="H38">
-        <v>1.036823122079996</v>
+        <v>1.008590066901563</v>
       </c>
       <c r="I38">
         <v>1.019055741144727</v>
@@ -2232,19 +2226,19 @@
         <v>0.9288238647159415</v>
       </c>
       <c r="D39">
+        <v>1.119213076245473</v>
+      </c>
+      <c r="E39">
+        <v>0.9259663341645885</v>
+      </c>
+      <c r="F39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>1.020675699454513</v>
       </c>
-      <c r="F39">
-        <v>0.9259663341645885</v>
-      </c>
-      <c r="G39">
-        <v>1.119213076245473</v>
-      </c>
       <c r="H39">
-        <v>1.020761969001673</v>
+        <v>0.9990837461076623</v>
       </c>
       <c r="I39">
         <v>1.010400322909452</v>
@@ -2264,19 +2258,19 @@
         <v>0.9545126353790614</v>
       </c>
       <c r="D40">
+        <v>1.160908290104727</v>
+      </c>
+      <c r="E40">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="F40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>1.014868907267288</v>
       </c>
-      <c r="F40">
-        <v>0.9240960099750624</v>
-      </c>
-      <c r="G40">
-        <v>1.160908290104727</v>
-      </c>
       <c r="H40">
-        <v>1.040824457872227</v>
+        <v>1.00869579364799</v>
       </c>
       <c r="I40">
         <v>1.024758485403896</v>
@@ -2296,19 +2290,19 @@
         <v>0.9407562226866806</v>
       </c>
       <c r="D41">
+        <v>1.115395908779485</v>
+      </c>
+      <c r="E41">
+        <v>0.9117051122194514</v>
+      </c>
+      <c r="F41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>0.9515220834066513</v>
       </c>
-      <c r="F41">
-        <v>0.9117051122194514</v>
-      </c>
-      <c r="G41">
-        <v>1.115395908779485</v>
-      </c>
       <c r="H41">
-        <v>1.004498215442043</v>
+        <v>0.9684459738600191</v>
       </c>
       <c r="I41">
         <v>1.005478152568434</v>
@@ -2328,19 +2322,19 @@
         <v>0.9410982329469885</v>
       </c>
       <c r="D42">
+        <v>1.077713614563962</v>
+      </c>
+      <c r="E42">
+        <v>0.892534289276808</v>
+      </c>
+      <c r="F42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>0.9544254795002639</v>
       </c>
-      <c r="F42">
-        <v>0.892534289276808</v>
-      </c>
-      <c r="G42">
-        <v>1.077713614563962</v>
-      </c>
       <c r="H42">
-        <v>0.990919364257689</v>
+        <v>0.9637959745436756</v>
       </c>
       <c r="I42">
         <v>1.005715308829281</v>
@@ -2360,19 +2354,19 @@
         <v>0.9316739502185066</v>
       </c>
       <c r="D43">
+        <v>1.047861407458158</v>
+      </c>
+      <c r="E43">
+        <v>0.8323721945137158</v>
+      </c>
+      <c r="F43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>0.902692240014077</v>
       </c>
-      <c r="F43">
-        <v>0.8323721945137158</v>
-      </c>
-      <c r="G43">
-        <v>1.047861407458158</v>
-      </c>
       <c r="H43">
-        <v>0.9563997740650274</v>
+        <v>0.9244625572273296</v>
       </c>
       <c r="I43">
         <v>0.9826137761087841</v>
@@ -2392,19 +2386,19 @@
         <v>0.9146114383431503</v>
       </c>
       <c r="D44">
+        <v>1.030733091905647</v>
+      </c>
+      <c r="E44">
+        <v>0.7886533665835412</v>
+      </c>
+      <c r="F44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>0.872514516980468</v>
       </c>
-      <c r="F44">
-        <v>0.7886533665835412</v>
-      </c>
-      <c r="G44">
-        <v>1.030733091905647</v>
-      </c>
       <c r="H44">
-        <v>0.9356131124907493</v>
+        <v>0.90080502600721</v>
       </c>
       <c r="I44">
         <v>0.9593049279814547</v>
@@ -2424,19 +2418,19 @@
         <v>0.9070492114763442</v>
       </c>
       <c r="D45">
+        <v>1.029852207105804</v>
+      </c>
+      <c r="E45">
+        <v>0.7831203241895262</v>
+      </c>
+      <c r="F45">
         <v>0.890500432235136</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>0.8790251627661446</v>
       </c>
-      <c r="F45">
-        <v>0.7831203241895262</v>
-      </c>
-      <c r="G45">
-        <v>1.029852207105804</v>
-      </c>
       <c r="H45">
-        <v>0.9380355287778382</v>
+        <v>0.9048535790231131</v>
       </c>
       <c r="I45">
         <v>0.952121135020441</v>
@@ -2456,19 +2450,19 @@
         <v>0.9280638419152575</v>
       </c>
       <c r="D46">
+        <v>1.093080160516786</v>
+      </c>
+      <c r="E46">
+        <v>0.7966801745635911</v>
+      </c>
+      <c r="F46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>0.9113144465951082</v>
       </c>
-      <c r="F46">
-        <v>0.7966801745635911</v>
-      </c>
-      <c r="G46">
-        <v>1.093080160516786</v>
-      </c>
       <c r="H46">
-        <v>0.9726032830025251</v>
+        <v>0.9326148259397562</v>
       </c>
       <c r="I46">
         <v>0.9759262836671583</v>
@@ -2488,19 +2482,19 @@
         <v>0.9239217176515295</v>
       </c>
       <c r="D47">
+        <v>1.080160516785749</v>
+      </c>
+      <c r="E47">
+        <v>0.7906795511221946</v>
+      </c>
+      <c r="F47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>0.9279429878585254</v>
       </c>
-      <c r="F47">
-        <v>0.7906795511221946</v>
-      </c>
-      <c r="G47">
-        <v>1.080160516785749</v>
-      </c>
       <c r="H47">
-        <v>0.970116260717931</v>
+        <v>0.9366284043539417</v>
       </c>
       <c r="I47">
         <v>0.9772691220977807</v>
@@ -2520,19 +2514,19 @@
         <v>0.9116473494204826</v>
       </c>
       <c r="D48">
+        <v>1.082411666829794</v>
+      </c>
+      <c r="E48">
+        <v>0.7855361596009975</v>
+      </c>
+      <c r="F48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>0.891870490937885</v>
       </c>
-      <c r="F48">
-        <v>0.7855361596009975</v>
-      </c>
-      <c r="G48">
-        <v>1.082411666829794</v>
-      </c>
       <c r="H48">
-        <v>0.958831143799671</v>
+        <v>0.9169120851034511</v>
       </c>
       <c r="I48">
         <v>0.9696502808966706</v>
@@ -2552,19 +2546,19 @@
         <v>0.9165874976249287</v>
       </c>
       <c r="D49">
+        <v>1.059704414211608</v>
+      </c>
+      <c r="E49">
+        <v>0.7842113466334165</v>
+      </c>
+      <c r="F49">
         <v>0.894870809720488</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>0.8978532465247228</v>
       </c>
-      <c r="F49">
-        <v>0.7842113466334165</v>
-      </c>
-      <c r="G49">
-        <v>1.059704414211608</v>
-      </c>
       <c r="H49">
-        <v>0.9548066452164622</v>
+        <v>0.9191993883253474</v>
       </c>
       <c r="I49">
         <v>0.9730065916875945</v>
@@ -2584,19 +2578,19 @@
         <v>0.9044271328139843</v>
       </c>
       <c r="D50">
+        <v>1.065576979543897</v>
+      </c>
+      <c r="E50">
+        <v>0.7973815461346635</v>
+      </c>
+      <c r="F50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>0.9011965511173675</v>
       </c>
-      <c r="F50">
-        <v>0.7973815461346635</v>
-      </c>
-      <c r="G50">
-        <v>1.065576979543897</v>
-      </c>
       <c r="H50">
-        <v>0.961466858735385</v>
+        <v>0.9253031644815485</v>
       </c>
       <c r="I50">
         <v>0.9777371523344186</v>
@@ -2616,19 +2610,19 @@
         <v>0.900019000570017</v>
       </c>
       <c r="D51">
+        <v>1.065674855632769</v>
+      </c>
+      <c r="E51">
+        <v>0.8066552369077307</v>
+      </c>
+      <c r="F51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>0.9162414217842689</v>
       </c>
-      <c r="F51">
-        <v>0.8066552369077307</v>
-      </c>
-      <c r="G51">
-        <v>1.065674855632769</v>
-      </c>
       <c r="H51">
-        <v>0.9652646301273892</v>
+        <v>0.9323892746807191</v>
       </c>
       <c r="I51">
         <v>0.9853544229642648</v>
@@ -2648,19 +2642,19 @@
         <v>0.8851985559566787</v>
       </c>
       <c r="D52">
+        <v>1.042869726925712</v>
+      </c>
+      <c r="E52">
+        <v>0.8120324189526186</v>
+      </c>
+      <c r="F52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>0.8931022347351749</v>
       </c>
-      <c r="F52">
-        <v>0.8120324189526186</v>
-      </c>
-      <c r="G52">
-        <v>1.042869726925712</v>
-      </c>
       <c r="H52">
-        <v>0.9464499710918335</v>
+        <v>0.9135011228099154</v>
       </c>
       <c r="I52">
         <v>0.9747907606433689</v>
@@ -2680,19 +2674,19 @@
         <v>0.8937868136044081</v>
       </c>
       <c r="D53">
+        <v>1.046491142213957</v>
+      </c>
+      <c r="E53">
+        <v>0.8185006234413966</v>
+      </c>
+      <c r="F53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>0.9136019707900757</v>
       </c>
-      <c r="F53">
-        <v>0.8185006234413966</v>
-      </c>
-      <c r="G53">
-        <v>1.046491142213957</v>
-      </c>
       <c r="H53">
-        <v>0.9556954681063043</v>
+        <v>0.9264598503930503</v>
       </c>
       <c r="I53">
         <v>0.9903535512972134</v>
@@ -2712,19 +2706,19 @@
         <v>0.8977009310279308</v>
       </c>
       <c r="D54">
+        <v>1.005970441421161</v>
+      </c>
+      <c r="E54">
+        <v>0.8129675810473815</v>
+      </c>
+      <c r="F54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>0.8989970086222066</v>
       </c>
-      <c r="F54">
-        <v>0.8129675810473815</v>
-      </c>
-      <c r="G54">
-        <v>1.005970441421161</v>
-      </c>
       <c r="H54">
-        <v>0.9345821313593996</v>
+        <v>0.9110479761436298</v>
       </c>
       <c r="I54">
         <v>0.9767649687220733</v>
@@ -2744,19 +2738,19 @@
         <v>0.8939768193045792</v>
       </c>
       <c r="D55">
+        <v>0.9642752275619065</v>
+      </c>
+      <c r="E55">
+        <v>0.7979270573566085</v>
+      </c>
+      <c r="F55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>0.8793770895653704</v>
       </c>
-      <c r="F55">
-        <v>0.7979270573566085</v>
-      </c>
-      <c r="G55">
-        <v>0.9642752275619065</v>
-      </c>
       <c r="H55">
-        <v>0.9110740231280187</v>
+        <v>0.8923964327687808</v>
       </c>
       <c r="I55">
         <v>0.9647296811269164</v>
@@ -2776,19 +2770,19 @@
         <v>0.8909367281018431</v>
       </c>
       <c r="D56">
+        <v>0.9700499168053244</v>
+      </c>
+      <c r="E56">
+        <v>0.8013559850374066</v>
+      </c>
+      <c r="F56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>0.8773535104698222</v>
       </c>
-      <c r="F56">
-        <v>0.8013559850374066</v>
-      </c>
-      <c r="G56">
-        <v>0.9700499168053244</v>
-      </c>
       <c r="H56">
-        <v>0.9136154756359719</v>
+        <v>0.8932222662421614</v>
       </c>
       <c r="I56">
         <v>0.9670651205963146</v>
@@ -2808,19 +2802,19 @@
         <v>0.8989929697890937</v>
       </c>
       <c r="D57">
+        <v>1.003132034843887</v>
+      </c>
+      <c r="E57">
+        <v>0.8143703241895262</v>
+      </c>
+      <c r="F57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>0.909466830899173</v>
       </c>
-      <c r="F57">
-        <v>0.8143703241895262</v>
-      </c>
-      <c r="G57">
-        <v>1.003132034843887</v>
-      </c>
       <c r="H57">
-        <v>0.9391710833966239</v>
+        <v>0.9185647385287867</v>
       </c>
       <c r="I57">
         <v>0.9818881721848689</v>
@@ -2840,19 +2834,19 @@
         <v>0.8953068592057761</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0.8287874064837905</v>
+      </c>
+      <c r="F58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>0.9016364596163997</v>
       </c>
-      <c r="F58">
-        <v>0.8287874064837905</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
       <c r="H58">
-        <v>0.9364818974589015</v>
+        <v>0.9148419185745096</v>
       </c>
       <c r="I58">
         <v>0.9823829021329928</v>
@@ -2872,19 +2866,19 @@
         <v>0.8951168535056052</v>
       </c>
       <c r="D59">
+        <v>1.01380052853088</v>
+      </c>
+      <c r="E59">
+        <v>0.8463996259351622</v>
+      </c>
+      <c r="F59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>0.9294386767552348</v>
       </c>
-      <c r="F59">
-        <v>0.8463996259351622</v>
-      </c>
-      <c r="G59">
-        <v>1.01380052853088</v>
-      </c>
       <c r="H59">
-        <v>0.9476352272742686</v>
+        <v>0.9290756198836267</v>
       </c>
       <c r="I59">
         <v>0.9863752942857905</v>
@@ -2904,19 +2898,19 @@
         <v>0.8835265057951739</v>
       </c>
       <c r="D60">
+        <v>0.9898208867573652</v>
+      </c>
+      <c r="E60">
+        <v>0.8123441396508729</v>
+      </c>
+      <c r="F60">
         <v>0.883872826817789</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>0.9236318845680098</v>
       </c>
-      <c r="F60">
-        <v>0.8123441396508729</v>
-      </c>
-      <c r="G60">
-        <v>0.9898208867573652</v>
-      </c>
       <c r="H60">
-        <v>0.9312801053116622</v>
+        <v>0.916718524830004</v>
       </c>
       <c r="I60">
         <v>0.9822462624330348</v>
@@ -2936,19 +2930,19 @@
         <v>0.8909367281018431</v>
       </c>
       <c r="D61">
+        <v>0.9985318586669276</v>
+      </c>
+      <c r="E61">
+        <v>0.8189682044887781</v>
+      </c>
+      <c r="F61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>0.9321661094492346</v>
       </c>
-      <c r="F61">
-        <v>0.8189682044887781</v>
-      </c>
-      <c r="G61">
-        <v>0.9985318586669276</v>
-      </c>
       <c r="H61">
-        <v>0.9415988495719044</v>
+        <v>0.926998384744012</v>
       </c>
       <c r="I61">
         <v>0.9912911823417532</v>
@@ -2968,19 +2962,19 @@
         <v>0.8902907087212617</v>
       </c>
       <c r="D62">
+        <v>1.007047078398747</v>
+      </c>
+      <c r="E62">
+        <v>0.8223192019950125</v>
+      </c>
+      <c r="F62">
         <v>0.913937181826914</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>0.929878585254267</v>
       </c>
-      <c r="F62">
-        <v>0.8223192019950125</v>
-      </c>
-      <c r="G62">
-        <v>1.007047078398747</v>
-      </c>
       <c r="H62">
-        <v>0.9480669336272751</v>
+        <v>0.9310898651354895</v>
       </c>
       <c r="I62">
         <v>0.9936391863812625</v>
@@ -3000,19 +2994,19 @@
         <v>0.8898346950408513</v>
       </c>
       <c r="D63">
+        <v>1.012528139375551</v>
+      </c>
+      <c r="E63">
+        <v>0.8305018703241897</v>
+      </c>
+      <c r="F63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>0.9511701566074255</v>
       </c>
-      <c r="F63">
-        <v>0.8305018703241897</v>
-      </c>
-      <c r="G63">
-        <v>1.012528139375551</v>
-      </c>
       <c r="H63">
-        <v>0.9525318543638133</v>
+        <v>0.9390330981548257</v>
       </c>
       <c r="I63">
         <v>0.9962290583954103</v>
@@ -3032,19 +3026,19 @@
         <v>0.8830704921147634</v>
       </c>
       <c r="D64">
+        <v>1.024664774395615</v>
+      </c>
+      <c r="E64">
+        <v>0.8252805486284289</v>
+      </c>
+      <c r="F64">
         <v>0.911391797137643</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>0.934453633644202</v>
       </c>
-      <c r="F64">
-        <v>0.8252805486284289</v>
-      </c>
-      <c r="G64">
-        <v>1.024664774395615</v>
-      </c>
       <c r="H64">
-        <v>0.9515138600352355</v>
+        <v>0.9316674090699246</v>
       </c>
       <c r="I64">
         <v>0.9970112028848254</v>
@@ -3064,19 +3058,19 @@
         <v>0.8854645639369181</v>
       </c>
       <c r="D65">
+        <v>1.037584418126652</v>
+      </c>
+      <c r="E65">
+        <v>0.823176433915212</v>
+      </c>
+      <c r="F65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>0.9263593172620094</v>
       </c>
-      <c r="F65">
-        <v>0.823176433915212</v>
-      </c>
-      <c r="G65">
-        <v>1.037584418126652</v>
-      </c>
       <c r="H65">
-        <v>0.9544607152729342</v>
+        <v>0.9299911930827129</v>
       </c>
       <c r="I65">
         <v>0.9983728881706143</v>
@@ -3096,19 +3090,19 @@
         <v>0.8733802014060421</v>
       </c>
       <c r="D66">
+        <v>1.035039639815993</v>
+      </c>
+      <c r="E66">
+        <v>0.8278522443890275</v>
+      </c>
+      <c r="F66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>0.9106105929966566</v>
       </c>
-      <c r="F66">
-        <v>0.8278522443890275</v>
-      </c>
-      <c r="G66">
-        <v>1.035039639815993</v>
-      </c>
       <c r="H66">
-        <v>0.9474263651886758</v>
+        <v>0.9200519748884219</v>
       </c>
       <c r="I66">
         <v>0.9949945893819959</v>
@@ -3128,19 +3122,19 @@
         <v>0.8619038571157135</v>
       </c>
       <c r="D67">
+        <v>0.9920720368014094</v>
+      </c>
+      <c r="E67">
+        <v>0.8005766832917707</v>
+      </c>
+      <c r="F67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>0.8857997536512404</v>
       </c>
-      <c r="F67">
-        <v>0.8005766832917707</v>
-      </c>
-      <c r="G67">
-        <v>0.9920720368014094</v>
-      </c>
       <c r="H67">
-        <v>0.9190307353929579</v>
+        <v>0.8956508330999208</v>
       </c>
       <c r="I67">
         <v>0.9779036328883906</v>
@@ -3160,19 +3154,19 @@
         <v>0.8583697510925328</v>
       </c>
       <c r="D68">
+        <v>0.9850249584026621</v>
+      </c>
+      <c r="E68">
+        <v>0.7983167082294265</v>
+      </c>
+      <c r="F68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>0.8802569065634347</v>
       </c>
-      <c r="F68">
-        <v>0.7983167082294265</v>
-      </c>
-      <c r="G68">
-        <v>0.9850249584026621</v>
-      </c>
       <c r="H68">
-        <v>0.9132648166005046</v>
+        <v>0.8902158451958746</v>
       </c>
       <c r="I68">
         <v>0.9752902023052845</v>
@@ -3192,19 +3186,19 @@
         <v>0.8668820064601939</v>
       </c>
       <c r="D69">
+        <v>1.008515219731819</v>
+      </c>
+      <c r="E69">
+        <v>0.810240024937656</v>
+      </c>
+      <c r="F69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>0.8934541615344008</v>
       </c>
-      <c r="F69">
-        <v>0.810240024937656</v>
-      </c>
-      <c r="G69">
-        <v>1.008515219731819</v>
-      </c>
       <c r="H69">
-        <v>0.9337156834984278</v>
+        <v>0.9084022506949956</v>
       </c>
       <c r="I69">
         <v>0.9858805643376666</v>
@@ -3224,19 +3218,19 @@
         <v>0.8567357020710622</v>
       </c>
       <c r="D70">
+        <v>1.024273270040129</v>
+      </c>
+      <c r="E70">
+        <v>0.8079800498753117</v>
+      </c>
+      <c r="F70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>0.8989090269224002</v>
       </c>
-      <c r="F70">
-        <v>0.8079800498753117</v>
-      </c>
-      <c r="G70">
-        <v>1.024273270040129</v>
-      </c>
       <c r="H70">
-        <v>0.936569711075923</v>
+        <v>0.9089895775900227</v>
       </c>
       <c r="I70">
         <v>0.9857627714928752</v>
@@ -3256,19 +3250,19 @@
         <v>0.8614098422952688</v>
       </c>
       <c r="D71">
+        <v>1.01840070470784</v>
+      </c>
+      <c r="E71">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="F71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>0.8948618687313038</v>
       </c>
-      <c r="F71">
-        <v>0.8092269326683292</v>
-      </c>
-      <c r="G71">
-        <v>1.01840070470784</v>
-      </c>
       <c r="H71">
-        <v>0.9366601673469523</v>
+        <v>0.9094816234321145</v>
       </c>
       <c r="I71">
         <v>0.9956777878817863</v>
@@ -3288,19 +3282,19 @@
         <v>0.8762682880486414</v>
       </c>
       <c r="D72">
+        <v>1.056670255456592</v>
+      </c>
+      <c r="E72">
+        <v>0.820682668329177</v>
+      </c>
+      <c r="F72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>0.9245996832658806</v>
       </c>
-      <c r="F72">
-        <v>0.820682668329177</v>
-      </c>
-      <c r="G72">
-        <v>1.056670255456592</v>
-      </c>
       <c r="H72">
-        <v>0.9670285991702143</v>
+        <v>0.9379730732882579</v>
       </c>
       <c r="I72">
         <v>1.009132871899496</v>
@@ -3320,19 +3314,19 @@
         <v>0.8699600988029641</v>
       </c>
       <c r="D73">
+        <v>1.046784770480572</v>
+      </c>
+      <c r="E73">
+        <v>0.8162406483790525</v>
+      </c>
+      <c r="F73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>0.936037304240718</v>
       </c>
-      <c r="F73">
-        <v>0.8162406483790525</v>
-      </c>
-      <c r="G73">
-        <v>1.046784770480572</v>
-      </c>
       <c r="H73">
-        <v>0.9615794544015119</v>
+        <v>0.9372150118287441</v>
       </c>
       <c r="I73">
         <v>1.009648019274051</v>
@@ -3352,19 +3346,19 @@
         <v>0.8667680030400912</v>
       </c>
       <c r="D74">
+        <v>1.039346187726339</v>
+      </c>
+      <c r="E74">
+        <v>0.8091490024937656</v>
+      </c>
+      <c r="F74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>0.9349815238430406</v>
       </c>
-      <c r="F74">
-        <v>0.8091490024937656</v>
-      </c>
-      <c r="G74">
-        <v>1.039346187726339</v>
-      </c>
       <c r="H74">
-        <v>0.9569186500938549</v>
+        <v>0.9339584240395293</v>
       </c>
       <c r="I74">
         <v>1.008347586267553</v>
@@ -3384,19 +3378,19 @@
         <v>0.8694660839825195</v>
       </c>
       <c r="D75">
+        <v>1.043652735636684</v>
+      </c>
+      <c r="E75">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="F75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>0.9373570297378144</v>
       </c>
-      <c r="F75">
-        <v>0.8092269326683292</v>
-      </c>
-      <c r="G75">
-        <v>1.043652735636684</v>
-      </c>
       <c r="H75">
-        <v>0.9593069231810565</v>
+        <v>0.9359218678833052</v>
       </c>
       <c r="I75">
         <v>1.012306996423809</v>
@@ -3416,19 +3410,19 @@
         <v>0.8707581227436823</v>
       </c>
       <c r="D76">
+        <v>1.055006361945777</v>
+      </c>
+      <c r="E76">
+        <v>0.8061097256857855</v>
+      </c>
+      <c r="F76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>0.946067218018652</v>
       </c>
-      <c r="F76">
-        <v>0.8061097256857855</v>
-      </c>
-      <c r="G76">
-        <v>1.055006361945777</v>
-      </c>
       <c r="H76">
-        <v>0.9656280622401143</v>
+        <v>0.941661450576147</v>
       </c>
       <c r="I76">
         <v>1.015022514139068</v>
@@ -3448,19 +3442,19 @@
         <v>0.8542276268288049</v>
       </c>
       <c r="D77">
+        <v>1.06313007732211</v>
+      </c>
+      <c r="E77">
+        <v>0.8057200748129677</v>
+      </c>
+      <c r="F77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>0.9409642794298785</v>
       </c>
-      <c r="F77">
-        <v>0.8057200748129677</v>
-      </c>
-      <c r="G77">
-        <v>1.06313007732211</v>
-      </c>
       <c r="H77">
-        <v>0.9622624905528609</v>
+        <v>0.93538601501657</v>
       </c>
       <c r="I77">
         <v>1.011864095327393</v>
@@ -3480,19 +3474,19 @@
         <v>0.8520235607068213</v>
       </c>
       <c r="D78">
+        <v>1.065479103455026</v>
+      </c>
+      <c r="E78">
+        <v>0.7945760598503742</v>
+      </c>
+      <c r="F78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>0.9388527186345239</v>
       </c>
-      <c r="F78">
-        <v>0.7945760598503742</v>
-      </c>
-      <c r="G78">
-        <v>1.065479103455026</v>
-      </c>
       <c r="H78">
-        <v>0.9606881896593583</v>
+        <v>0.9328303849988479</v>
       </c>
       <c r="I78">
         <v>1.012434212696184</v>
@@ -3512,19 +3506,19 @@
         <v>0.8538476154284629</v>
       </c>
       <c r="D79">
+        <v>1.065870607810512</v>
+      </c>
+      <c r="E79">
+        <v>0.8017456359102244</v>
+      </c>
+      <c r="F79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>0.9543374978004574</v>
       </c>
-      <c r="F79">
-        <v>0.8017456359102244</v>
-      </c>
-      <c r="G79">
-        <v>1.065870607810512</v>
-      </c>
       <c r="H79">
-        <v>0.9680177608323011</v>
+        <v>0.943480476630089</v>
       </c>
       <c r="I79">
         <v>1.019259915409032</v>
@@ -3544,19 +3538,19 @@
         <v>0.8710621318639559</v>
       </c>
       <c r="D80">
+        <v>1.076049721053147</v>
+      </c>
+      <c r="E80">
+        <v>0.801278054862843</v>
+      </c>
+      <c r="F80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>0.9507302481083935</v>
       </c>
-      <c r="F80">
-        <v>0.801278054862843</v>
-      </c>
-      <c r="G80">
-        <v>1.076049721053147</v>
-      </c>
       <c r="H80">
-        <v>0.9740325241832292</v>
+        <v>0.9464622401353834</v>
       </c>
       <c r="I80">
         <v>1.019603870515823</v>
@@ -3576,19 +3570,19 @@
         <v>0.8592817784533536</v>
       </c>
       <c r="D81">
+        <v>1.073798571009102</v>
+      </c>
+      <c r="E81">
+        <v>0.7742362842892769</v>
+      </c>
+      <c r="F81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>0.9735175083582615</v>
       </c>
-      <c r="F81">
-        <v>0.7742362842892769</v>
-      </c>
-      <c r="G81">
-        <v>1.073798571009102</v>
-      </c>
       <c r="H81">
-        <v>0.9720770329378372</v>
+        <v>0.9500151991546522</v>
       </c>
       <c r="I81">
         <v>1.018626975189686</v>
@@ -3608,19 +3602,19 @@
         <v>0.8473114193425803</v>
       </c>
       <c r="D82">
+        <v>1.10061661935989</v>
+      </c>
+      <c r="E82">
+        <v>0.7846009975062345</v>
+      </c>
+      <c r="F82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>0.9692943867675522</v>
       </c>
-      <c r="F82">
-        <v>0.7846009975062345</v>
-      </c>
-      <c r="G82">
-        <v>1.10061661935989</v>
-      </c>
       <c r="H82">
-        <v>0.9768811878705232</v>
+        <v>0.9479902967002087</v>
       </c>
       <c r="I82">
         <v>1.01919866312974</v>
@@ -3640,19 +3634,19 @@
         <v>0.8371651149534486</v>
       </c>
       <c r="D83">
+        <v>1.129587941665851</v>
+      </c>
+      <c r="E83">
+        <v>0.7733011221945137</v>
+      </c>
+      <c r="F83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>0.9435157487242654</v>
       </c>
-      <c r="F83">
-        <v>0.7733011221945137</v>
-      </c>
-      <c r="G83">
-        <v>1.129587941665851</v>
-      </c>
       <c r="H83">
-        <v>0.974160113821846</v>
+        <v>0.9332242313746971</v>
       </c>
       <c r="I83">
         <v>1.012145227583629</v>
@@ -3672,19 +3666,19 @@
         <v>0.8344290328709862</v>
       </c>
       <c r="D84">
+        <v>1.185181560144857</v>
+      </c>
+      <c r="E84">
+        <v>0.7623129675810474</v>
+      </c>
+      <c r="F84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>0.9534576808023931</v>
       </c>
-      <c r="F84">
-        <v>0.7623129675810474</v>
-      </c>
-      <c r="G84">
-        <v>1.185181560144857</v>
-      </c>
       <c r="H84">
-        <v>0.9941757887341569</v>
+        <v>0.943196535278815</v>
       </c>
       <c r="I84">
         <v>1.017100379921189</v>
@@ -3704,19 +3698,19 @@
         <v>0.8416872506175186</v>
       </c>
       <c r="D85">
+        <v>1.136341391797984</v>
+      </c>
+      <c r="E85">
+        <v>0.7819513715710724</v>
+      </c>
+      <c r="F85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>0.9448354742213619</v>
       </c>
-      <c r="F85">
-        <v>0.7819513715710724</v>
-      </c>
-      <c r="G85">
-        <v>1.136341391797984</v>
-      </c>
       <c r="H85">
-        <v>0.9782435975293888</v>
+        <v>0.9361122956625321</v>
       </c>
       <c r="I85">
         <v>1.013967090249737</v>
@@ -3736,19 +3730,19 @@
         <v>0.8394451833555007</v>
       </c>
       <c r="D86">
+        <v>1.141920328863659</v>
+      </c>
+      <c r="E86">
+        <v>0.7791458852867831</v>
+      </c>
+      <c r="F86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>0.9505542847087806</v>
       </c>
-      <c r="F86">
-        <v>0.7791458852867831</v>
-      </c>
-      <c r="G86">
-        <v>1.141920328863659</v>
-      </c>
       <c r="H86">
-        <v>0.9818975092706104</v>
+        <v>0.9397969795565371</v>
       </c>
       <c r="I86">
         <v>1.022763859898761</v>
@@ -3768,19 +3762,19 @@
         <v>0.8331369941098233</v>
       </c>
       <c r="D87">
+        <v>1.084662816873838</v>
+      </c>
+      <c r="E87">
+        <v>0.7760286783042395</v>
+      </c>
+      <c r="F87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>0.932254091149041</v>
       </c>
-      <c r="F87">
-        <v>0.7760286783042395</v>
-      </c>
-      <c r="G87">
-        <v>1.084662816873838</v>
-      </c>
       <c r="H87">
-        <v>0.9537756546419665</v>
+        <v>0.9202457349825111</v>
       </c>
       <c r="I87">
         <v>1.011295548529867</v>
@@ -3800,19 +3794,19 @@
         <v>0.8823104693140795</v>
       </c>
       <c r="D88">
+        <v>1.089850249584027</v>
+      </c>
+      <c r="E88">
+        <v>0.8062655860349127</v>
+      </c>
+      <c r="F88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>0.945451346120007</v>
       </c>
-      <c r="F88">
-        <v>0.8062655860349127</v>
-      </c>
-      <c r="G88">
-        <v>1.089850249584027</v>
-      </c>
       <c r="H88">
-        <v>0.974771939873178</v>
+        <v>0.9430041811110936</v>
       </c>
       <c r="I88">
         <v>1.024923395386604</v>
@@ -3832,19 +3826,19 @@
         <v>0.8695040851225537</v>
       </c>
       <c r="D89">
+        <v>1.121757854556132</v>
+      </c>
+      <c r="E89">
+        <v>0.8110193266832918</v>
+      </c>
+      <c r="F89">
         <v>1.002449332436846</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>0.9732535632588422</v>
       </c>
-      <c r="F89">
-        <v>0.8110193266832918</v>
-      </c>
-      <c r="G89">
-        <v>1.121757854556132</v>
-      </c>
       <c r="H89">
-        <v>0.9942111777632338</v>
+        <v>0.96154023367783</v>
       </c>
       <c r="I89">
         <v>1.033143765381782</v>
@@ -3864,19 +3858,19 @@
         <v>0.8729241877256317</v>
       </c>
       <c r="D90">
+        <v>1.136047763531369</v>
+      </c>
+      <c r="E90">
+        <v>0.8293329177057358</v>
+      </c>
+      <c r="F90">
         <v>1.003361828834886</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>0.9691184233679394</v>
       </c>
-      <c r="F90">
-        <v>0.8293329177057358</v>
-      </c>
-      <c r="G90">
-        <v>1.136047763531369</v>
-      </c>
       <c r="H90">
-        <v>1.001586127434465</v>
+        <v>0.9648616725985104</v>
       </c>
       <c r="I90">
         <v>1.036514211314081</v>
@@ -3896,19 +3890,19 @@
         <v>0.8679460383811514</v>
       </c>
       <c r="D91">
+        <v>1.142311833219144</v>
+      </c>
+      <c r="E91">
+        <v>0.8308915211970076</v>
+      </c>
+      <c r="F91">
         <v>1.040149841513784</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>0.9848671476332922</v>
       </c>
-      <c r="F91">
-        <v>0.8308915211970076</v>
-      </c>
-      <c r="G91">
-        <v>1.142311833219144</v>
-      </c>
       <c r="H91">
-        <v>1.009593188568028</v>
+        <v>0.9749553577391401</v>
       </c>
       <c r="I91">
         <v>1.034125372421711</v>
@@ -3928,19 +3922,19 @@
         <v>0.8780543416302489</v>
       </c>
       <c r="D92">
+        <v>1.107957326025252</v>
+      </c>
+      <c r="E92">
+        <v>0.8322942643391522</v>
+      </c>
+      <c r="F92">
         <v>1.044616271251561</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>0.9745732887559386</v>
       </c>
-      <c r="F92">
-        <v>0.8322942643391522</v>
-      </c>
-      <c r="G92">
-        <v>1.107957326025252</v>
-      </c>
       <c r="H92">
-        <v>1.00001661562126</v>
+        <v>0.9706721274220105</v>
       </c>
       <c r="I92">
         <v>1.028521574152166</v>
@@ -3960,19 +3954,19 @@
         <v>0.8647539426182785</v>
       </c>
       <c r="D93">
+        <v>1.114221395713027</v>
+      </c>
+      <c r="E93">
+        <v>0.8153054862842893</v>
+      </c>
+      <c r="F93">
         <v>1.040437998271059</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>0.9789723737462608</v>
       </c>
-      <c r="F93">
-        <v>0.8153054862842893</v>
-      </c>
-      <c r="G93">
-        <v>1.114221395713027</v>
-      </c>
       <c r="H93">
-        <v>0.9976200504881283</v>
+        <v>0.9678652656554396</v>
       </c>
       <c r="I93">
         <v>1.025246933066964</v>
@@ -3992,19 +3986,19 @@
         <v>0.8749762492874787</v>
       </c>
       <c r="D94">
+        <v>1.106195556425565</v>
+      </c>
+      <c r="E94">
+        <v>0.8232543640897756</v>
+      </c>
+      <c r="F94">
         <v>1.046825473057343</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>0.9773887031497448</v>
       </c>
-      <c r="F94">
-        <v>0.8232543640897756</v>
-      </c>
-      <c r="G94">
-        <v>1.106195556425565</v>
-      </c>
       <c r="H94">
-        <v>0.9979671395202498</v>
+        <v>0.9696296317995694</v>
       </c>
       <c r="I94">
         <v>1.027800681942043</v>
@@ -4024,19 +4018,19 @@
         <v>0.9109633288998671</v>
       </c>
       <c r="D95">
+        <v>1.115493784868357</v>
+      </c>
+      <c r="E95">
+        <v>0.8514650872817956</v>
+      </c>
+      <c r="F95">
         <v>1.060320814523101</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>0.9863628365300017</v>
       </c>
-      <c r="F95">
-        <v>0.8514650872817956</v>
-      </c>
-      <c r="G95">
-        <v>1.115493784868357</v>
-      </c>
       <c r="H95">
-        <v>1.015047718724786</v>
+        <v>0.9866389100903481</v>
       </c>
       <c r="I95">
         <v>1.0396663478407</v>
@@ -4056,19 +4050,19 @@
         <v>0.9098992969789094</v>
       </c>
       <c r="D96">
+        <v>1.125477145933248</v>
+      </c>
+      <c r="E96">
+        <v>0.8516209476309228</v>
+      </c>
+      <c r="F96">
         <v>1.051195850542695</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>0.9736934717578744</v>
       </c>
-      <c r="F96">
-        <v>0.8516209476309228</v>
-      </c>
-      <c r="G96">
-        <v>1.125477145933248</v>
-      </c>
       <c r="H96">
-        <v>1.016318356974924</v>
+        <v>0.9829259486563422</v>
       </c>
       <c r="I96">
         <v>1.041007615700059</v>
@@ -4088,19 +4082,19 @@
         <v>0.9118753562606878</v>
       </c>
       <c r="D97">
+        <v>1.125672898110991</v>
+      </c>
+      <c r="E97">
+        <v>0.8588684538653368</v>
+      </c>
+      <c r="F97">
         <v>1.054605705503794</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>0.9847791659334858</v>
       </c>
-      <c r="F97">
-        <v>0.8588684538653368</v>
-      </c>
-      <c r="G97">
-        <v>1.125672898110991</v>
-      </c>
       <c r="H97">
-        <v>1.020645610075624</v>
+        <v>0.9896489889965727</v>
       </c>
       <c r="I97">
         <v>1.049991283329486</v>
@@ -4120,19 +4114,19 @@
         <v>0.9207676230286909</v>
       </c>
       <c r="D98">
+        <v>1.142996965841245</v>
+      </c>
+      <c r="E98">
+        <v>0.8636221945137158</v>
+      </c>
+      <c r="F98">
         <v>1.100230525405821</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>0.9952489882104522</v>
       </c>
-      <c r="F98">
-        <v>0.8636221945137158</v>
-      </c>
-      <c r="G98">
-        <v>1.142996965841245</v>
-      </c>
       <c r="H98">
-        <v>1.033731843810928</v>
+        <v>1.001227288732154</v>
       </c>
       <c r="I98">
         <v>1.047283618470546</v>
@@ -4152,19 +4146,19 @@
         <v>0.9160554816644499</v>
       </c>
       <c r="D99">
+        <v>1.174415190368993</v>
+      </c>
+      <c r="E99">
+        <v>0.8893391521197008</v>
+      </c>
+      <c r="F99">
         <v>1.15565267505523</v>
       </c>
-      <c r="E99">
+      <c r="G99">
         <v>1.035192679922576</v>
       </c>
-      <c r="F99">
-        <v>0.8893391521197008</v>
-      </c>
-      <c r="G99">
-        <v>1.174415190368993</v>
-      </c>
       <c r="H99">
-        <v>1.056140349715447</v>
+        <v>1.025511397417236</v>
       </c>
       <c r="I99">
         <v>1.0568358328975</v>
@@ -4184,19 +4178,19 @@
         <v>0.9023370701121033</v>
       </c>
       <c r="D100">
+        <v>1.176079083879808</v>
+      </c>
+      <c r="E100">
+        <v>0.883806109725686</v>
+      </c>
+      <c r="F100">
         <v>1.144894822783594</v>
       </c>
-      <c r="E100">
+      <c r="G100">
         <v>1.029297906035544</v>
       </c>
-      <c r="F100">
-        <v>0.883806109725686</v>
-      </c>
-      <c r="G100">
-        <v>1.176079083879808</v>
-      </c>
       <c r="H100">
-        <v>1.052752597146574</v>
+        <v>1.020460738020835</v>
       </c>
       <c r="I100">
         <v>1.058527338148705</v>
@@ -4216,19 +4210,19 @@
         <v>0.8915067452023561</v>
       </c>
       <c r="D101">
+        <v>1.15914652050504</v>
+      </c>
+      <c r="E101">
+        <v>0.8630766832917706</v>
+      </c>
+      <c r="F101">
         <v>1.139131687638075</v>
       </c>
-      <c r="E101">
+      <c r="G101">
         <v>1.013285236670772</v>
       </c>
-      <c r="F101">
-        <v>0.8630766832917706</v>
-      </c>
-      <c r="G101">
-        <v>1.15914652050504</v>
-      </c>
       <c r="H101">
-        <v>1.03925810303732</v>
+        <v>1.007168620593781</v>
       </c>
       <c r="I101">
         <v>1.049366195966459</v>
@@ -4248,19 +4242,19 @@
         <v>0.8892646779403383</v>
       </c>
       <c r="D102">
+        <v>1.159440148771655</v>
+      </c>
+      <c r="E102">
+        <v>0.8511533665835412</v>
+      </c>
+      <c r="F102">
         <v>1.133560656997407</v>
       </c>
-      <c r="E102">
+      <c r="G102">
         <v>0.9834594404363891</v>
       </c>
-      <c r="F102">
-        <v>0.8511533665835412</v>
-      </c>
-      <c r="G102">
-        <v>1.159440148771655</v>
-      </c>
       <c r="H102">
-        <v>1.032992611064866</v>
+        <v>0.9942768552311072</v>
       </c>
       <c r="I102">
         <v>1.047214513334935</v>
@@ -4280,19 +4274,19 @@
         <v>0.8954968649059473</v>
       </c>
       <c r="D103">
+        <v>1.15581873348341</v>
+      </c>
+      <c r="E103">
+        <v>0.8606608478802994</v>
+      </c>
+      <c r="F103">
         <v>1.162376332725003</v>
       </c>
-      <c r="E103">
+      <c r="G103">
         <v>0.9824916417385183</v>
       </c>
-      <c r="F103">
-        <v>0.8606608478802994</v>
-      </c>
-      <c r="G103">
-        <v>1.15581873348341</v>
-      </c>
       <c r="H103">
-        <v>1.037145187236365</v>
+        <v>0.9990132270524892</v>
       </c>
       <c r="I103">
         <v>1.051192770346358</v>
@@ -4312,19 +4306,19 @@
         <v>0.8968649059471785</v>
       </c>
       <c r="D104">
+        <v>1.150533424684349</v>
+      </c>
+      <c r="E104">
+        <v>0.8759351620947633</v>
+      </c>
+      <c r="F104">
         <v>1.137114590337144</v>
       </c>
-      <c r="E104">
+      <c r="G104">
         <v>0.9783565018476157</v>
       </c>
-      <c r="F104">
-        <v>0.8759351620947633</v>
-      </c>
-      <c r="G104">
-        <v>1.150533424684349</v>
-      </c>
       <c r="H104">
-        <v>1.033935148666354</v>
+        <v>0.9960562256422727</v>
       </c>
       <c r="I104">
         <v>1.055659475020849</v>
@@ -4344,19 +4338,19 @@
         <v>0.8987269618088544</v>
       </c>
       <c r="D105">
+        <v>1.124009004600176</v>
+      </c>
+      <c r="E105">
+        <v>0.8875467581047383</v>
+      </c>
+      <c r="F105">
         <v>1.128710018249928</v>
       </c>
-      <c r="E105">
+      <c r="G105">
         <v>0.9735175083582615</v>
       </c>
-      <c r="F105">
-        <v>0.8875467581047383</v>
-      </c>
-      <c r="G105">
-        <v>1.124009004600176</v>
-      </c>
       <c r="H105">
-        <v>1.025643176055548</v>
+        <v>0.9925350468823269</v>
       </c>
       <c r="I105">
         <v>1.049857784772055</v>
@@ -4376,19 +4370,19 @@
         <v>0.8920767623028691</v>
       </c>
       <c r="D106">
+        <v>1.12753254379955</v>
+      </c>
+      <c r="E106">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="F106">
         <v>1.127413312842186</v>
       </c>
-      <c r="E106">
+      <c r="G106">
         <v>0.9815238430406474</v>
       </c>
-      <c r="F106">
-        <v>0.8935473815461348</v>
-      </c>
-      <c r="G106">
-        <v>1.12753254379955</v>
-      </c>
       <c r="H106">
-        <v>1.026408376098317</v>
+        <v>0.9942864619313585</v>
       </c>
       <c r="I106">
         <v>1.051167641206136</v>
@@ -4408,19 +4402,19 @@
         <v>0.8914307429222877</v>
       </c>
       <c r="D107">
+        <v>1.132719976509739</v>
+      </c>
+      <c r="E107">
+        <v>0.8955735660847881</v>
+      </c>
+      <c r="F107">
         <v>1.169964460666603</v>
       </c>
-      <c r="E107">
+      <c r="G107">
         <v>1.027538272039416</v>
       </c>
-      <c r="F107">
-        <v>0.8955735660847881</v>
-      </c>
-      <c r="G107">
-        <v>1.132719976509739</v>
-      </c>
       <c r="H107">
-        <v>1.039084102307402</v>
+        <v>1.01594412732393</v>
       </c>
       <c r="I107">
         <v>1.062591976579641</v>
@@ -4440,19 +4434,19 @@
         <v>0.8793083792513775</v>
       </c>
       <c r="D108">
+        <v>1.133600861309582</v>
+      </c>
+      <c r="E108">
+        <v>0.8650249376558605</v>
+      </c>
+      <c r="F108">
         <v>1.182163096724618</v>
       </c>
-      <c r="E108">
+      <c r="G108">
         <v>1.050589477388703</v>
       </c>
-      <c r="F108">
-        <v>0.8650249376558605</v>
-      </c>
-      <c r="G108">
-        <v>1.133600861309582</v>
-      </c>
       <c r="H108">
-        <v>1.037481489576883</v>
+        <v>1.019218985114289</v>
       </c>
       <c r="I108">
         <v>1.056353667519487</v>
@@ -4472,19 +4466,19 @@
         <v>0.8608398251947558</v>
       </c>
       <c r="D109">
+        <v>1.096701575805031</v>
+      </c>
+      <c r="E109">
+        <v>0.8675966334164589</v>
+      </c>
+      <c r="F109">
         <v>1.177408510229565</v>
       </c>
-      <c r="E109">
+      <c r="G109">
         <v>1.039943691712124</v>
       </c>
-      <c r="F109">
-        <v>0.8675966334164589</v>
-      </c>
-      <c r="G109">
-        <v>1.096701575805031</v>
-      </c>
       <c r="H109">
-        <v>1.019696480096367</v>
+        <v>1.007209745595927</v>
       </c>
       <c r="I109">
         <v>1.046575290830534</v>
@@ -4504,19 +4498,19 @@
         <v>0.8558996769903097</v>
       </c>
       <c r="D110">
+        <v>1.050308309679945</v>
+      </c>
+      <c r="E110">
+        <v>0.8565305486284289</v>
+      </c>
+      <c r="F110">
         <v>1.10147920468735</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>0.9936653176139362</v>
       </c>
-      <c r="F110">
-        <v>0.8565305486284289</v>
-      </c>
-      <c r="G110">
-        <v>1.050308309679945</v>
-      </c>
       <c r="H110">
-        <v>0.9855438986842007</v>
+        <v>0.9730824404296787</v>
       </c>
       <c r="I110">
         <v>1.031282638434078</v>
@@ -4536,19 +4530,19 @@
         <v>0.8542656279688392</v>
       </c>
       <c r="D111">
+        <v>1.054810609768034</v>
+      </c>
+      <c r="E111">
+        <v>0.8651028678304241</v>
+      </c>
+      <c r="F111">
         <v>1.133128421861493</v>
       </c>
-      <c r="E111">
+      <c r="G111">
         <v>1.014956888967095</v>
       </c>
-      <c r="F111">
-        <v>0.8651028678304241</v>
-      </c>
-      <c r="G111">
-        <v>1.054810609768034</v>
-      </c>
       <c r="H111">
-        <v>0.9937826703971362</v>
+        <v>0.9850148518209296</v>
       </c>
       <c r="I111">
         <v>1.03911664789834</v>
@@ -4568,19 +4562,19 @@
         <v>0.8541896256887705</v>
       </c>
       <c r="D112">
+        <v>1.073504942742488</v>
+      </c>
+      <c r="E112">
+        <v>0.8840399002493767</v>
+      </c>
+      <c r="F112">
         <v>1.187926231870138</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>1.038184057715995</v>
       </c>
-      <c r="F112">
-        <v>0.8840399002493767</v>
-      </c>
-      <c r="G112">
-        <v>1.073504942742488</v>
-      </c>
       <c r="H112">
-        <v>1.012924239620635</v>
+        <v>1.005153644914806</v>
       </c>
       <c r="I112">
         <v>1.045648653784841</v>
@@ -4600,19 +4594,19 @@
         <v>0.849895496864906</v>
       </c>
       <c r="D113">
+        <v>1.068121757854556</v>
+      </c>
+      <c r="E113">
+        <v>0.9191084788029926</v>
+      </c>
+      <c r="F113">
         <v>1.192968975122467</v>
       </c>
-      <c r="E113">
+      <c r="G113">
         <v>1.070649304944572</v>
       </c>
-      <c r="F113">
-        <v>0.9191084788029926</v>
-      </c>
-      <c r="G113">
-        <v>1.068121757854556</v>
-      </c>
       <c r="H113">
-        <v>1.017710464380364</v>
+        <v>1.018266524740168</v>
       </c>
       <c r="I113">
         <v>1.053410416970965</v>
@@ -4632,19 +4626,19 @@
         <v>0.8526695800874026</v>
       </c>
       <c r="D114">
+        <v>1.073896447097974</v>
+      </c>
+      <c r="E114">
+        <v>0.912562344139651</v>
+      </c>
+      <c r="F114">
         <v>1.193593314763231</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>1.07364068273799</v>
       </c>
-      <c r="F114">
-        <v>0.912562344139651</v>
-      </c>
-      <c r="G114">
-        <v>1.073896447097974</v>
-      </c>
       <c r="H114">
-        <v>1.020669297881152</v>
+        <v>1.020613029721956</v>
       </c>
       <c r="I114">
         <v>1.058532049862497</v>
@@ -4664,19 +4658,19 @@
         <v>0.859737792133764</v>
       </c>
       <c r="D115">
+        <v>1.092003523539199</v>
+      </c>
+      <c r="E115">
+        <v>0.9116271820448878</v>
+      </c>
+      <c r="F115">
         <v>1.227211603112093</v>
       </c>
-      <c r="E115">
+      <c r="G115">
         <v>1.088509590005279</v>
       </c>
-      <c r="F115">
-        <v>0.9116271820448878</v>
-      </c>
-      <c r="G115">
-        <v>1.092003523539199</v>
-      </c>
       <c r="H115">
-        <v>1.035865515671185</v>
+        <v>1.035096850293723</v>
       </c>
       <c r="I115">
         <v>1.066410035322148</v>
@@ -4696,19 +4690,19 @@
         <v>0.8619798593957819</v>
       </c>
       <c r="D116">
+        <v>1.084956445140452</v>
+      </c>
+      <c r="E116">
+        <v>0.8972880299251871</v>
+      </c>
+      <c r="F116">
         <v>1.212563634617232</v>
       </c>
-      <c r="E116">
+      <c r="G116">
         <v>1.123790251627661</v>
       </c>
-      <c r="F116">
-        <v>0.8972880299251871</v>
-      </c>
-      <c r="G116">
-        <v>1.084956445140452</v>
-      </c>
       <c r="H116">
-        <v>1.033615678081345</v>
+        <v>1.042159115508531</v>
       </c>
       <c r="I116">
         <v>1.060900471328436</v>
@@ -4728,19 +4722,19 @@
         <v>0.8825764772943188</v>
       </c>
       <c r="D117">
+        <v>1.113829891357541</v>
+      </c>
+      <c r="E117">
+        <v>0.8997817955112221</v>
+      </c>
+      <c r="F117">
         <v>1.235616175199308</v>
       </c>
-      <c r="E117">
+      <c r="G117">
         <v>1.129773007214499</v>
       </c>
-      <c r="F117">
-        <v>0.8997817955112221</v>
-      </c>
-      <c r="G117">
-        <v>1.113829891357541</v>
-      </c>
       <c r="H117">
-        <v>1.050548450637554</v>
+        <v>1.054055936126085</v>
       </c>
       <c r="I117">
         <v>1.070094595507224</v>
@@ -4754,31 +4748,319 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.022222222222222</v>
+        <v>1.030900426385754</v>
       </c>
       <c r="C118">
-        <v>0.8825764772943188</v>
+        <v>0.8717461523845715</v>
       </c>
       <c r="D118">
-        <v>1.235616175199308</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="E118">
-        <v>1.129773007214499</v>
+        <v>0.9050031172069826</v>
       </c>
       <c r="F118">
-        <v>0.8997817955112221</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="G118">
-        <v>1.113829891357541</v>
+        <v>1.144377969382368</v>
       </c>
       <c r="H118">
-        <v>1.050548450637554</v>
+        <v>1.061537384387724</v>
       </c>
       <c r="I118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="J118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.017557060446451</v>
+      </c>
+      <c r="C119">
+        <v>0.858217746532396</v>
+      </c>
+      <c r="D119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="E119">
+        <v>0.8849750623441397</v>
+      </c>
+      <c r="F119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="G119">
+        <v>1.176139363012493</v>
+      </c>
+      <c r="H119">
+        <v>1.063852276062833</v>
+      </c>
+      <c r="I119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="J119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.019162277401555</v>
+      </c>
+      <c r="C120">
+        <v>0.8644119323579709</v>
+      </c>
+      <c r="D120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="E120">
+        <v>0.8979114713216958</v>
+      </c>
+      <c r="F120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="G120">
+        <v>1.190920288579975</v>
+      </c>
+      <c r="H120">
+        <v>1.077287105154793</v>
+      </c>
+      <c r="I120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="J120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.014246300476549</v>
+      </c>
+      <c r="C121">
+        <v>0.8527835835075053</v>
+      </c>
+      <c r="D121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="E121">
+        <v>0.859569825436409</v>
+      </c>
+      <c r="F121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="G121">
+        <v>1.153704029561851</v>
+      </c>
+      <c r="H121">
+        <v>1.053807166880746</v>
+      </c>
+      <c r="I121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="J121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9962377727614747</v>
+      </c>
+      <c r="C122">
+        <v>0.8252707581227436</v>
+      </c>
+      <c r="D122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="E122">
+        <v>0.8307356608478804</v>
+      </c>
+      <c r="F122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="G122">
+        <v>1.138571177195143</v>
+      </c>
+      <c r="H122">
+        <v>1.038951421696824</v>
+      </c>
+      <c r="I122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="J122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9941810885377477</v>
+      </c>
+      <c r="C123">
+        <v>0.8244347330419913</v>
+      </c>
+      <c r="D123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="E123">
+        <v>0.8346321695760599</v>
+      </c>
+      <c r="F123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="G123">
+        <v>1.157311279253915</v>
+      </c>
+      <c r="H123">
+        <v>1.054639865678498</v>
+      </c>
+      <c r="I123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="J123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.9964885879107097</v>
+      </c>
+      <c r="C124">
+        <v>0.8333650009500285</v>
+      </c>
+      <c r="D124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="E124">
+        <v>0.8402431421446385</v>
+      </c>
+      <c r="F124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="G124">
+        <v>1.134875945803273</v>
+      </c>
+      <c r="H124">
+        <v>1.051187066792251</v>
+      </c>
+      <c r="I124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="J124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.008176573865061</v>
+      </c>
+      <c r="C125">
+        <v>0.8322629678890368</v>
+      </c>
+      <c r="D125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="E125">
+        <v>0.8637001246882794</v>
+      </c>
+      <c r="F125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="G125">
+        <v>1.195759282069329</v>
+      </c>
+      <c r="H125">
+        <v>1.087869244883315</v>
+      </c>
+      <c r="I125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="J125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9972410333584149</v>
+      </c>
+      <c r="C126">
+        <v>0.823826714801444</v>
+      </c>
+      <c r="D126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="E126">
+        <v>0.8980673316708231</v>
+      </c>
+      <c r="F126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="G126">
+        <v>1.207724793243006</v>
+      </c>
+      <c r="H126">
+        <v>1.095266604052885</v>
+      </c>
+      <c r="I126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="J126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.000953097567093</v>
+      </c>
+      <c r="C127">
+        <v>0.822306669200076</v>
+      </c>
+      <c r="D127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="E127">
+        <v>0.8907418952618454</v>
+      </c>
+      <c r="F127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="G127">
+        <v>1.215731127925391</v>
+      </c>
+      <c r="H127">
+        <v>1.107674767558671</v>
+      </c>
+      <c r="I127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="J127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4890,18 +5172,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -4933,254 +5215,233 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>0.17</v>
       </c>
       <c r="J2">
-        <v>34.32</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K2">
-        <v>3.01</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L2">
-        <v>-5.03</v>
-      </c>
-      <c r="M2">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>14.36</v>
+        <v>1.657299995422363</v>
       </c>
       <c r="K3">
-        <v>1.76</v>
+        <v>13.48019981384277</v>
       </c>
       <c r="L3">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M3">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.4625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="J4">
-        <v>133.48</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K4">
-        <v>9.199999999999999</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L4">
-        <v>4.83</v>
-      </c>
-      <c r="M4">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0.11</v>
       </c>
       <c r="J5">
-        <v>48.82</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K5">
-        <v>4.98</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L5">
-        <v>15.45</v>
-      </c>
-      <c r="M5">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0.11</v>
       </c>
       <c r="J6">
-        <v>67.98</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K6">
-        <v>3.81</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L6">
-        <v>1.45</v>
-      </c>
-      <c r="M6">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>38.7678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="J7">
-        <v>39.53</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K7">
-        <v>3.11</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L7">
-        <v>16.99</v>
-      </c>
-      <c r="M7">
-        <v>24.35</v>
+        <v>44.9032</v>
       </c>
     </row>
   </sheetData>
@@ -5198,19 +5459,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5218,19 +5479,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5238,19 +5499,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5258,19 +5519,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5278,19 +5539,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5298,19 +5559,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5318,19 +5579,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5338,19 +5599,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5358,19 +5619,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5378,19 +5639,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5398,19 +5659,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5418,19 +5679,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5438,19 +5699,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5458,19 +5719,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5478,19 +5739,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5498,19 +5759,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5518,19 +5779,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5538,19 +5799,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5558,19 +5819,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5578,19 +5839,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5598,19 +5859,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5628,98 +5889,98 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5727,10 +5988,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
